--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Mfng-Notch2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Mfng-Notch2.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>14.31124333333333</v>
+        <v>8.893517000000001</v>
       </c>
       <c r="H2">
-        <v>42.93373</v>
+        <v>26.680551</v>
       </c>
       <c r="I2">
-        <v>0.9565656017657385</v>
+        <v>0.9082944842335181</v>
       </c>
       <c r="J2">
-        <v>0.9565656017657385</v>
+        <v>0.9082944842335181</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>31.96029466666667</v>
+        <v>0.9705896666666667</v>
       </c>
       <c r="N2">
-        <v>95.88088399999999</v>
+        <v>2.911769</v>
       </c>
       <c r="O2">
-        <v>0.3907265741426954</v>
+        <v>0.02073452941466921</v>
       </c>
       <c r="P2">
-        <v>0.3907265741426953</v>
+        <v>0.02073452941466921</v>
       </c>
       <c r="Q2">
-        <v>457.3915539797022</v>
+        <v>8.631955700524335</v>
       </c>
       <c r="R2">
-        <v>4116.523985817319</v>
+        <v>77.68760130471901</v>
       </c>
       <c r="S2">
-        <v>0.3737556005206729</v>
+        <v>0.01883305870052168</v>
       </c>
       <c r="T2">
-        <v>0.3737556005206728</v>
+        <v>0.01883305870052168</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>14.31124333333333</v>
+        <v>8.893517000000001</v>
       </c>
       <c r="H3">
-        <v>42.93373</v>
+        <v>26.680551</v>
       </c>
       <c r="I3">
-        <v>0.9565656017657385</v>
+        <v>0.9082944842335181</v>
       </c>
       <c r="J3">
-        <v>0.9565656017657385</v>
+        <v>0.9082944842335181</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>79.04420999999999</v>
       </c>
       <c r="O3">
-        <v>0.3221150253382706</v>
+        <v>0.5628689972673966</v>
       </c>
       <c r="P3">
-        <v>0.3221150253382706</v>
+        <v>0.5628689972673966</v>
       </c>
       <c r="Q3">
-        <v>377.0736411336999</v>
+        <v>234.32700846219</v>
       </c>
       <c r="R3">
-        <v>3393.662770203299</v>
+        <v>2108.94307615971</v>
       </c>
       <c r="S3">
-        <v>0.3081241530504889</v>
+        <v>0.5112508055640275</v>
       </c>
       <c r="T3">
-        <v>0.3081241530504889</v>
+        <v>0.5112508055640275</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>14.31124333333333</v>
+        <v>8.893517000000001</v>
       </c>
       <c r="H4">
-        <v>42.93373</v>
+        <v>26.680551</v>
       </c>
       <c r="I4">
-        <v>0.9565656017657385</v>
+        <v>0.9082944842335181</v>
       </c>
       <c r="J4">
-        <v>0.9565656017657385</v>
+        <v>0.9082944842335181</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>23.48872</v>
+        <v>19.49164633333333</v>
       </c>
       <c r="N4">
-        <v>70.46615999999999</v>
+        <v>58.47493899999999</v>
       </c>
       <c r="O4">
-        <v>0.287158400519034</v>
+        <v>0.4163964733179342</v>
       </c>
       <c r="P4">
-        <v>0.2871584005190339</v>
+        <v>0.4163964733179341</v>
       </c>
       <c r="Q4">
-        <v>336.1527875085333</v>
+        <v>173.3492880234877</v>
       </c>
       <c r="R4">
-        <v>3025.375087576799</v>
+        <v>1560.143592211389</v>
       </c>
       <c r="S4">
-        <v>0.2746858481945766</v>
+        <v>0.3782106199689689</v>
       </c>
       <c r="T4">
-        <v>0.2746858481945766</v>
+        <v>0.3782106199689689</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>1.244721</v>
       </c>
       <c r="I5">
-        <v>0.02773244468615822</v>
+        <v>0.04237443292342908</v>
       </c>
       <c r="J5">
-        <v>0.02773244468615822</v>
+        <v>0.04237443292342909</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>31.96029466666667</v>
+        <v>0.9705896666666667</v>
       </c>
       <c r="N5">
-        <v>95.88088399999999</v>
+        <v>2.911769</v>
       </c>
       <c r="O5">
-        <v>0.3907265741426954</v>
+        <v>0.02073452941466921</v>
       </c>
       <c r="P5">
-        <v>0.3907265741426953</v>
+        <v>0.02073452941466921</v>
       </c>
       <c r="Q5">
-        <v>13.26054997926266</v>
+        <v>0.4027044468276667</v>
       </c>
       <c r="R5">
-        <v>119.344949813364</v>
+        <v>3.624340021449</v>
       </c>
       <c r="S5">
-        <v>0.0108358031048244</v>
+        <v>0.0008786139258807678</v>
       </c>
       <c r="T5">
-        <v>0.0108358031048244</v>
+        <v>0.000878613925880768</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>1.244721</v>
       </c>
       <c r="I6">
-        <v>0.02773244468615822</v>
+        <v>0.04237443292342908</v>
       </c>
       <c r="J6">
-        <v>0.02773244468615822</v>
+        <v>0.04237443292342909</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>79.04420999999999</v>
       </c>
       <c r="O6">
-        <v>0.3221150253382706</v>
+        <v>0.5628689972673966</v>
       </c>
       <c r="P6">
-        <v>0.3221150253382706</v>
+        <v>0.5628689972673966</v>
       </c>
       <c r="Q6">
         <v>10.93199867949</v>
@@ -818,10 +818,10 @@
         <v>98.38798811540998</v>
       </c>
       <c r="S6">
-        <v>0.008933037122774042</v>
+        <v>0.02385125456938508</v>
       </c>
       <c r="T6">
-        <v>0.008933037122774042</v>
+        <v>0.02385125456938509</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>1.244721</v>
       </c>
       <c r="I7">
-        <v>0.02773244468615822</v>
+        <v>0.04237443292342908</v>
       </c>
       <c r="J7">
-        <v>0.02773244468615822</v>
+        <v>0.04237443292342909</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>23.48872</v>
+        <v>19.49164633333333</v>
       </c>
       <c r="N7">
-        <v>70.46615999999999</v>
+        <v>58.47493899999999</v>
       </c>
       <c r="O7">
-        <v>0.287158400519034</v>
+        <v>0.4163964733179342</v>
       </c>
       <c r="P7">
-        <v>0.2871584005190339</v>
+        <v>0.4163964733179341</v>
       </c>
       <c r="Q7">
-        <v>9.745634349039998</v>
+        <v>8.087220505224332</v>
       </c>
       <c r="R7">
-        <v>87.71070914135998</v>
+        <v>72.78498454701899</v>
       </c>
       <c r="S7">
-        <v>0.007963604458559778</v>
+        <v>0.01764456442816323</v>
       </c>
       <c r="T7">
-        <v>0.007963604458559776</v>
+        <v>0.01764456442816323</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,22 +900,22 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.234918</v>
+        <v>0.4830226666666667</v>
       </c>
       <c r="H8">
-        <v>0.704754</v>
+        <v>1.449068</v>
       </c>
       <c r="I8">
-        <v>0.01570195354810335</v>
+        <v>0.04933108284305281</v>
       </c>
       <c r="J8">
-        <v>0.01570195354810335</v>
+        <v>0.04933108284305281</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>31.96029466666667</v>
+        <v>0.9705896666666667</v>
       </c>
       <c r="N8">
-        <v>95.88088399999999</v>
+        <v>2.911769</v>
       </c>
       <c r="O8">
-        <v>0.3907265741426954</v>
+        <v>0.02073452941466921</v>
       </c>
       <c r="P8">
-        <v>0.3907265741426953</v>
+        <v>0.02073452941466921</v>
       </c>
       <c r="Q8">
-        <v>7.508048502504</v>
+        <v>0.4688168090324444</v>
       </c>
       <c r="R8">
-        <v>67.57243652253599</v>
+        <v>4.219351281292</v>
       </c>
       <c r="S8">
-        <v>0.006135170517198163</v>
+        <v>0.001022856788266762</v>
       </c>
       <c r="T8">
-        <v>0.006135170517198162</v>
+        <v>0.001022856788266762</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,22 +962,22 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.234918</v>
+        <v>0.4830226666666667</v>
       </c>
       <c r="H9">
-        <v>0.704754</v>
+        <v>1.449068</v>
       </c>
       <c r="I9">
-        <v>0.01570195354810335</v>
+        <v>0.04933108284305281</v>
       </c>
       <c r="J9">
-        <v>0.01570195354810335</v>
+        <v>0.04933108284305281</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>79.04420999999999</v>
       </c>
       <c r="O9">
-        <v>0.3221150253382706</v>
+        <v>0.5628689972673966</v>
       </c>
       <c r="P9">
-        <v>0.3221150253382706</v>
+        <v>0.5628689972673966</v>
       </c>
       <c r="Q9">
-        <v>6.189635908259999</v>
+        <v>12.72671503292</v>
       </c>
       <c r="R9">
-        <v>55.70672317433999</v>
+        <v>114.54043529628</v>
       </c>
       <c r="S9">
-        <v>0.005057835165007659</v>
+        <v>0.02776693713398401</v>
       </c>
       <c r="T9">
-        <v>0.005057835165007659</v>
+        <v>0.02776693713398401</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,22 +1024,22 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.234918</v>
+        <v>0.4830226666666667</v>
       </c>
       <c r="H10">
-        <v>0.704754</v>
+        <v>1.449068</v>
       </c>
       <c r="I10">
-        <v>0.01570195354810335</v>
+        <v>0.04933108284305281</v>
       </c>
       <c r="J10">
-        <v>0.01570195354810335</v>
+        <v>0.04933108284305281</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>23.48872</v>
+        <v>19.49164633333333</v>
       </c>
       <c r="N10">
-        <v>70.46615999999999</v>
+        <v>58.47493899999999</v>
       </c>
       <c r="O10">
-        <v>0.287158400519034</v>
+        <v>0.4163964733179342</v>
       </c>
       <c r="P10">
-        <v>0.2871584005190339</v>
+        <v>0.4163964733179341</v>
       </c>
       <c r="Q10">
-        <v>5.517923124959999</v>
+        <v>9.414906989650222</v>
       </c>
       <c r="R10">
-        <v>49.66130812463999</v>
+        <v>84.73416290685199</v>
       </c>
       <c r="S10">
-        <v>0.004508947865897529</v>
+        <v>0.02054128892080204</v>
       </c>
       <c r="T10">
-        <v>0.004508947865897528</v>
+        <v>0.02054128892080204</v>
       </c>
     </row>
   </sheetData>
